--- a/project/bsengine/curvature_data.xlsx
+++ b/project/bsengine/curvature_data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,455 +454,252 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>11.299</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>11.549</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>11.799</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>12.049</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>12.299</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>12.549</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>12.799</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>13.049</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>13.299</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>13.549</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>13.799</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1.409</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0481775</v>
+        <v>0.116414</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0477113</v>
+        <v>0.121184</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0473114</v>
+        <v>0.124436</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0469752</v>
+        <v>0.126614</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.046698</v>
+        <v>0.128017</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.0464787</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.0463203</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.046216</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.046164</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0.0461659</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0.0462196</v>
+        <v>0.128846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1.434</v>
+        <v>1.1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.0474468</v>
+        <v>0.0870378</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.0468908</v>
+        <v>0.0914789</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0463991</v>
+        <v>0.0947339</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0459708</v>
+        <v>0.0971373</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.0455999</v>
+        <v>0.0989076</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.0452848</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.0450234</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.0448134</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.0446531</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0.044542</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0.0444803</v>
+        <v>0.100198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1.459</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0469048</v>
+        <v>0.0667021</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0462696</v>
+        <v>0.0706215</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0456998</v>
+        <v>0.0736252</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0451901</v>
+        <v>0.0759514</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.0447374</v>
+        <v>0.0777649</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.0443382</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.0439927</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.0436956</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.0434459</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0.0432427</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0.0430845</v>
+        <v>0.0791839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1.484</v>
+        <v>1.3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.0465208</v>
+        <v>0.0555694</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.0458139</v>
+        <v>0.0556556</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.0451714</v>
+        <v>0.0583486</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0445903</v>
+        <v>0.0604954</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.0440673</v>
+        <v>0.0622182</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0435974</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.0431776</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.0428061</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.042479</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0.0421982</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0.0419604</v>
+        <v>0.063612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1.509</v>
+        <v>1.4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0462771</v>
+        <v>0.0519684</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.0455027</v>
+        <v>0.0474543</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.0447959</v>
+        <v>0.0470699</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0441496</v>
+        <v>0.0489549</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.0435596</v>
+        <v>0.0505536</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.0430226</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.0425384</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.0421026</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0.0417117</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0.0413623</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0.0410557</v>
+        <v>0.0518766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1.534</v>
+        <v>1.5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.0461552</v>
+        <v>0.0515032</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.0453185</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.0445487</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.0438433</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.0431922</v>
+        <v>0.0444085</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.041161</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.0404536</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.0416108</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.0425972</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.0420537</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.0415567</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0.0411061</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0.0406987</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0.0403302</v>
+        <v>0.0428433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1.559</v>
+        <v>1.6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0461364</v>
+        <v>0.0527886</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.0452454</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.0444141</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.0436543</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.042948</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.0422969</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.0416998</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.0411473</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>0.0406435</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0.0401803</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0.0397598</v>
+        <v>0.0437223</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.0387251</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0361652</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.0352859</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.0357621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1.584</v>
+        <v>1.7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.0462165</v>
+        <v>0.0552237</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0452641</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.0443848</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.0435663</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.042811</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.0421067</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0.0414595</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.0408566</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>0.0403027</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>0.0397906</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0.0393209</v>
+        <v>0.0444103</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.0380615</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0342831</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.0321462</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.0311805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1.609</v>
+        <v>1.8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0463772</v>
+        <v>0.0584844</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.045375</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.0444386</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.0435743</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0.0427641</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.0420163</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0.0413182</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.0406704</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>0.0400692</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>0.0395117</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0.0389956</v>
+        <v>0.0460099</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.0384582</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0337168</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.0307115</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.028872</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1.634</v>
+        <v>1.9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.0466135</v>
+        <v>0.0623913</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.0455604</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.044573</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.0436595</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0.042805</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0.0420057</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0.0412663</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.0405729</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>0.0399279</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0.0393289</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>0.0387683</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1.659</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.0469192</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.0458139</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0.044779</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0.0438161</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0.0429175</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0.0420748</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>0.0412889</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.0405556</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0.0398694</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0.0392273</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>0.0386303</v>
+        <v>0.0482758</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.0395894</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.0339845</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.0302687</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.0277868</v>
       </c>
     </row>
   </sheetData>
